--- a/Ladon/wiki.xlsx
+++ b/Ladon/wiki.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="8865"/>
+    <workbookView windowWidth="19095" windowHeight="8865" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="信息收集(远程)" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724">
   <si>
     <t>Ladon模块</t>
   </si>
@@ -431,6 +431,9 @@
   </si>
   <si>
     <t>注：本表格仅限EXE内置功能，不包含外置POC或专用EXP</t>
+  </si>
+  <si>
+    <t>AI未授权漏洞 白嫖DeepSeek R1 和 Qwen 2.5</t>
   </si>
   <si>
     <t>MS17010</t>
@@ -593,6 +596,24 @@
   </si>
   <si>
     <t>Exchange ProxyShell漏洞检测</t>
+  </si>
+  <si>
+    <t>CVE-2025-32433</t>
+  </si>
+  <si>
+    <t>CVE-2025-32433 Erlang/OTP SSH RCE Exploit</t>
+  </si>
+  <si>
+    <t>22 2222</t>
+  </si>
+  <si>
+    <t>CVE-2024-27198</t>
+  </si>
+  <si>
+    <t>JetBrains TeamCity CVE-2024-27198 添加用户EXP</t>
+  </si>
+  <si>
+    <t>80 443</t>
   </si>
   <si>
     <t>OracleCmd</t>
@@ -2930,7 +2951,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2983,6 +3004,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3325,7 +3349,7 @@
   <sheetPr/>
   <dimension ref="A1:XFD60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
@@ -3359,7 +3383,7 @@
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="18"/>
+      <c r="D3" s="19"/>
       <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3371,7 +3395,7 @@
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="18"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
@@ -3383,7 +3407,7 @@
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="18"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
@@ -3395,7 +3419,7 @@
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="18"/>
+      <c r="D6" s="19"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A7" s="2" t="s">
@@ -3404,24 +3428,24 @@
       <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="19">
         <v>135</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" s="19" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A8" s="19" t="s">
+    <row r="8" s="20" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A8" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="23">
         <v>53</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="20" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3432,7 +3456,7 @@
       <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="19" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -3446,7 +3470,7 @@
       <c r="C10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="19" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -3460,7 +3484,7 @@
       <c r="C11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="19" t="s">
         <v>31</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -3474,7 +3498,7 @@
       <c r="C12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="19" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3485,7 +3509,7 @@
       <c r="C13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="19" t="s">
         <v>35</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -3499,7 +3523,7 @@
       <c r="C14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="19" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3510,7 +3534,7 @@
       <c r="C15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="19" t="s">
         <v>35</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -3524,7 +3548,7 @@
       <c r="C16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="19">
         <v>139</v>
       </c>
     </row>
@@ -3535,12 +3559,12 @@
       <c r="C17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="19" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" ht="14.25" spans="4:4">
-      <c r="D18" s="18"/>
+      <c r="D18" s="19"/>
     </row>
     <row r="19" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A19" s="2" t="s">
@@ -3549,7 +3573,7 @@
       <c r="C19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="19">
         <v>135</v>
       </c>
     </row>
@@ -3560,7 +3584,7 @@
       <c r="C20" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="19">
         <v>445</v>
       </c>
     </row>
@@ -3571,7 +3595,7 @@
       <c r="C21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="19" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3582,7 +3606,7 @@
       <c r="C22" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="19">
         <v>1433</v>
       </c>
     </row>
@@ -3593,7 +3617,7 @@
       <c r="C23" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="19">
         <v>3389</v>
       </c>
     </row>
@@ -3604,7 +3628,7 @@
       <c r="C24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="19" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3615,7 +3639,7 @@
       <c r="C25" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="19" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3626,7 +3650,7 @@
       <c r="C26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="19">
         <v>137</v>
       </c>
     </row>
@@ -3637,7 +3661,7 @@
       <c r="C27" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="19" t="s">
         <v>35</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -3651,7 +3675,7 @@
       <c r="C28" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="19">
         <v>7001</v>
       </c>
     </row>
@@ -3662,12 +3686,12 @@
       <c r="C29" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="19">
         <v>161</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" ht="14.25" spans="4:4">
-      <c r="D30" s="18"/>
+      <c r="D30" s="19"/>
     </row>
     <row r="31" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A31" s="5" t="s">
@@ -3676,7 +3700,7 @@
       <c r="C31" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="19" t="s">
         <v>77</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -3690,7 +3714,7 @@
       <c r="C32" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="18"/>
+      <c r="D32" s="19"/>
       <c r="E32" s="2" t="s">
         <v>81</v>
       </c>
@@ -3702,7 +3726,7 @@
       <c r="C33" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="18"/>
+      <c r="D33" s="19"/>
     </row>
     <row r="34" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A34" s="2" t="s">
@@ -3711,7 +3735,7 @@
       <c r="C34" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D34" s="18"/>
+      <c r="D34" s="19"/>
       <c r="E34" s="2" t="s">
         <v>86</v>
       </c>
@@ -3723,7 +3747,7 @@
       <c r="C35" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="19">
         <v>1433</v>
       </c>
     </row>
@@ -3734,7 +3758,7 @@
       <c r="C36" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="19">
         <v>445</v>
       </c>
       <c r="E36" s="2" t="s">
@@ -3748,13 +3772,13 @@
       <c r="C37" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D37" s="18"/>
+      <c r="D37" s="19"/>
       <c r="E37" s="2" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" ht="14.25" spans="4:4">
-      <c r="D38" s="18"/>
+      <c r="D38" s="19"/>
     </row>
     <row r="39" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A39" s="2" t="s">
@@ -3763,7 +3787,7 @@
       <c r="C39" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D39" s="19">
         <v>443</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -3777,7 +3801,7 @@
       <c r="C40" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D40" s="18">
+      <c r="D40" s="19">
         <v>80</v>
       </c>
       <c r="E40" s="2" t="s">
@@ -3791,7 +3815,7 @@
       <c r="C41" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="19" t="s">
         <v>103</v>
       </c>
       <c r="E41" s="2" t="s">
@@ -3805,7 +3829,7 @@
       <c r="C42" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D42" s="19" t="s">
         <v>103</v>
       </c>
       <c r="E42" s="2" t="s">
@@ -3819,7 +3843,7 @@
       <c r="C43" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="19" t="s">
         <v>103</v>
       </c>
       <c r="E43" s="2" t="s">
@@ -3833,7 +3857,7 @@
       <c r="C44" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="19" t="s">
         <v>113</v>
       </c>
       <c r="E44" s="2" t="s">
@@ -3847,7 +3871,7 @@
       <c r="C45" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D45" s="18">
+      <c r="D45" s="19">
         <v>443</v>
       </c>
       <c r="E45" s="2" t="s">
@@ -3861,7 +3885,7 @@
       <c r="C46" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D46" s="18">
+      <c r="D46" s="19">
         <v>443</v>
       </c>
       <c r="E46" s="2" t="s">
@@ -3875,7 +3899,7 @@
       <c r="C47" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D47" s="18">
+      <c r="D47" s="19">
         <v>443</v>
       </c>
       <c r="E47" s="2" t="s">
@@ -3889,7 +3913,7 @@
       <c r="C48" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D48" s="18">
+      <c r="D48" s="19">
         <v>9100</v>
       </c>
       <c r="E48" s="2" t="s">
@@ -3897,7 +3921,7 @@
       </c>
     </row>
     <row r="49" s="2" customFormat="1" ht="14.25" spans="4:4">
-      <c r="D49" s="18"/>
+      <c r="D49" s="19"/>
     </row>
     <row r="50" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A50" s="2" t="s">
@@ -3906,7 +3930,7 @@
       <c r="C50" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="D50" s="19" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3917,7 +3941,7 @@
       <c r="C51" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D51" s="18" t="s">
+      <c r="D51" s="19" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3928,7 +3952,7 @@
       <c r="C52" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D52" s="18" t="s">
+      <c r="D52" s="19" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3939,37 +3963,37 @@
       <c r="C53" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D53" s="18"/>
+      <c r="D53" s="19"/>
     </row>
     <row r="54" s="2" customFormat="1" ht="14.25" spans="4:4">
-      <c r="D54" s="18"/>
+      <c r="D54" s="19"/>
     </row>
     <row r="55" s="2" customFormat="1" ht="14.25" spans="4:4">
-      <c r="D55" s="18"/>
-    </row>
-    <row r="56" s="20" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A56" s="23" t="s">
+      <c r="D55" s="19"/>
+    </row>
+    <row r="56" s="21" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A56" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="C56" s="23" t="s">
+      <c r="C56" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="D56" s="24">
+      <c r="D56" s="25">
         <v>11434</v>
       </c>
-      <c r="E56" s="23"/>
-    </row>
-    <row r="58" s="21" customFormat="1" ht="25.5" spans="1:4">
+      <c r="E56" s="24"/>
+    </row>
+    <row r="58" s="22" customFormat="1" ht="25.5" spans="1:4">
       <c r="A58" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D58" s="25"/>
-    </row>
-    <row r="59" s="21" customFormat="1" ht="25.5" spans="4:4">
-      <c r="D59" s="25"/>
-    </row>
-    <row r="60" s="21" customFormat="1" ht="25.5" spans="4:4">
-      <c r="D60" s="25"/>
+      <c r="D58" s="26"/>
+    </row>
+    <row r="59" s="22" customFormat="1" ht="25.5" spans="4:4">
+      <c r="D59" s="26"/>
+    </row>
+    <row r="60" s="22" customFormat="1" ht="25.5" spans="4:4">
+      <c r="D60" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4014,172 +4038,172 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="14.25"/>
     <row r="10" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A17" s="5" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A18" s="5" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
     </row>
     <row r="20" customFormat="1"/>
     <row r="21" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" ht="156.75" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" s="3" customFormat="1" ht="25.5" spans="1:1">
@@ -4201,10 +4225,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:XFD32"/>
+  <dimension ref="A1:XFD33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="$A5:$XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4230,58 +4254,58 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A3" s="2" t="s">
+    <row r="3" customFormat="1" spans="1:3">
+      <c r="A3" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="4" s="2" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A4" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="2" t="s">
+    </row>
+    <row r="5" s="2" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A5" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="5" t="s">
+    </row>
+    <row r="6" s="2" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A6" s="5" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A6" s="2" t="s">
+      <c r="C6" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="2" t="s">
+    </row>
+    <row r="7" s="2" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A7" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A8" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="14.25" spans="1:3">
@@ -4289,158 +4313,166 @@
         <v>149</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A10" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A11" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A12" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A13" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A14" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C14" s="2" t="s">
+    </row>
+    <row r="15" s="2" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A15" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C15" s="2" t="s">
+    </row>
+    <row r="16" s="2" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A16" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A17" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A18" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C18" s="2" t="s">
+    </row>
+    <row r="19" s="2" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A19" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="19" s="2" customFormat="1" ht="144" customHeight="1" spans="1:3">
-      <c r="A19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C19" s="6" t="s">
+    </row>
+    <row r="20" s="2" customFormat="1" ht="144" customHeight="1" spans="1:3">
+      <c r="A20" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="20" s="2" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A20" s="2" t="s">
+      <c r="C20" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C20" s="2" t="s">
+    </row>
+    <row r="21" s="2" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A21" s="2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="21" s="2" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A22" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C22" s="2" t="s">
+    </row>
+    <row r="23" s="2" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A23" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="23" s="2" customFormat="1" ht="70" customHeight="1" spans="1:3">
-      <c r="A23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C23" s="6" t="s">
+    </row>
+    <row r="24" s="2" customFormat="1" ht="70" customHeight="1" spans="1:3">
+      <c r="A24" s="2" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="24" s="2" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A24" s="2" t="s">
+      <c r="C24" s="6" t="s">
         <v>182</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A25" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C25" s="2" t="s">
+    </row>
+    <row r="26" s="2" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A26" s="2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="26" s="2" customFormat="1" ht="14.25"/>
+      <c r="C26" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
     <row r="27" s="2" customFormat="1" ht="14.25"/>
-    <row r="30" s="3" customFormat="1" ht="25.5" spans="1:1">
-      <c r="A30" s="7" t="s">
+    <row r="28" s="2" customFormat="1" ht="14.25"/>
+    <row r="31" s="3" customFormat="1" ht="25.5" spans="1:1">
+      <c r="A31" s="7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="31" s="3" customFormat="1" ht="25.5"/>
     <row r="32" s="3" customFormat="1" ht="25.5"/>
+    <row r="33" s="3" customFormat="1" ht="25.5"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A30:XFD32"/>
+    <mergeCell ref="A31:XFD33"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -4450,10 +4482,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:XFD46"/>
+  <dimension ref="A1:XFD47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4478,396 +4510,424 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="D3" s="18"/>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="C3" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D4" s="18"/>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="85" customHeight="1" spans="1:4">
+      <c r="D3" s="18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="D5" s="18"/>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="14.25" spans="4:4">
-      <c r="D6" s="18"/>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="14.25" spans="1:5">
+        <v>193</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="19">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="19">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="85" customHeight="1" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A8" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="14.25" spans="1:4">
+      <c r="C7" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D7" s="19">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="14.25" spans="4:4">
+      <c r="D8" s="19"/>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D9" s="18"/>
+        <v>199</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="2" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D10" s="18"/>
+        <v>202</v>
+      </c>
+      <c r="D10" s="19"/>
       <c r="E10" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="14.25" spans="1:5">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="2" t="s">
-        <v>203</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="D11" s="19"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D12" s="18"/>
+        <v>207</v>
+      </c>
+      <c r="D12" s="19"/>
       <c r="E12" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A13" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D13" s="18"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D14" s="18"/>
+        <v>212</v>
+      </c>
+      <c r="D14" s="19"/>
       <c r="E14" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="14.25" spans="1:4">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D15" s="18"/>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="14.25" spans="4:4">
-      <c r="D16" s="18"/>
+        <v>215</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="2" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="17" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D17" s="18"/>
-    </row>
-    <row r="18" s="2" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A18" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D18" s="18"/>
+        <v>221</v>
+      </c>
+      <c r="D17" s="19"/>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="14.25" spans="4:4">
+      <c r="D18" s="19"/>
     </row>
     <row r="19" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D19" s="18"/>
-    </row>
-    <row r="20" s="2" customFormat="1" ht="14.25" spans="1:5">
+        <v>223</v>
+      </c>
+      <c r="D19" s="19"/>
+    </row>
+    <row r="20" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="21" s="2" customFormat="1" ht="14.25" spans="1:5">
+        <v>225</v>
+      </c>
+      <c r="D20" s="19"/>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="22" s="2" customFormat="1" ht="14.25" spans="1:4">
+        <v>227</v>
+      </c>
+      <c r="D21" s="19"/>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D22" s="18"/>
-    </row>
-    <row r="23" s="2" customFormat="1" ht="14.25" spans="1:4">
+        <v>229</v>
+      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D23" s="18"/>
+        <v>232</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="2" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="24" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D24" s="18"/>
+        <v>235</v>
+      </c>
+      <c r="D24" s="19"/>
     </row>
     <row r="25" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D25" s="18"/>
-    </row>
-    <row r="26" s="2" customFormat="1" ht="14.25" spans="4:4">
-      <c r="D26" s="18"/>
-    </row>
-    <row r="27" s="2" customFormat="1" ht="213.75" spans="1:4">
+        <v>237</v>
+      </c>
+      <c r="D25" s="19"/>
+    </row>
+    <row r="26" s="2" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A26" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D26" s="19"/>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="D27" s="18"/>
-    </row>
-    <row r="28" s="2" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A28" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D28" s="18"/>
-    </row>
-    <row r="29" s="2" customFormat="1" ht="14.25" spans="1:5">
+        <v>240</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D27" s="19"/>
+    </row>
+    <row r="28" s="2" customFormat="1" ht="14.25" spans="4:4">
+      <c r="D28" s="19"/>
+    </row>
+    <row r="29" s="2" customFormat="1" ht="213.75" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="30" s="2" customFormat="1" ht="14.25" spans="1:5">
+        <v>242</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D29" s="19"/>
+    </row>
+    <row r="30" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="2" t="s">
-        <v>244</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="D30" s="19"/>
     </row>
     <row r="31" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D31" s="18"/>
+        <v>247</v>
+      </c>
+      <c r="D31" s="19"/>
       <c r="E31" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D32" s="18"/>
+        <v>250</v>
+      </c>
+      <c r="D32" s="19"/>
       <c r="E32" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A33" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D33" s="18"/>
+        <v>253</v>
+      </c>
+      <c r="D33" s="19"/>
       <c r="E33" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="34" s="2" customFormat="1" ht="14.25" spans="1:4">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D34" s="18"/>
-    </row>
-    <row r="35" s="2" customFormat="1" ht="14.25" spans="1:4">
+        <v>256</v>
+      </c>
+      <c r="D34" s="19"/>
+      <c r="E34" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="35" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D35" s="18"/>
-    </row>
-    <row r="36" s="2" customFormat="1" ht="57" spans="1:4">
+        <v>259</v>
+      </c>
+      <c r="D35" s="19"/>
+      <c r="E35" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="36" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="D36" s="18"/>
+        <v>261</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D36" s="19"/>
     </row>
     <row r="37" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D37" s="18"/>
-    </row>
-    <row r="38" s="2" customFormat="1" ht="14.25" spans="1:5">
+        <v>264</v>
+      </c>
+      <c r="D37" s="19"/>
+    </row>
+    <row r="38" s="2" customFormat="1" ht="57" spans="1:4">
       <c r="A38" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D38" s="18"/>
-      <c r="E38" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="39" s="2" customFormat="1" ht="14.25" spans="4:4">
-      <c r="D39" s="18"/>
-    </row>
-    <row r="40" s="2" customFormat="1" ht="14.25" spans="1:4">
+        <v>265</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D38" s="19"/>
+    </row>
+    <row r="39" s="2" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A39" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D39" s="19"/>
+    </row>
+    <row r="40" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A40" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D40" s="18"/>
-    </row>
-    <row r="41" s="2" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A41" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D41" s="18"/>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C42" s="8" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="44" s="3" customFormat="1" ht="25.5" spans="1:1">
-      <c r="A44" s="7" t="s">
+      <c r="D40" s="19"/>
+      <c r="E40" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="41" s="2" customFormat="1" ht="14.25" spans="4:4">
+      <c r="D41" s="19"/>
+    </row>
+    <row r="42" s="2" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A42" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D42" s="19"/>
+    </row>
+    <row r="43" s="2" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A43" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D43" s="19"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="45" s="3" customFormat="1" ht="25.5" spans="1:1">
+      <c r="A45" s="7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="45" s="3" customFormat="1" ht="25.5"/>
     <row r="46" s="3" customFormat="1" ht="25.5"/>
+    <row r="47" s="3" customFormat="1" ht="25.5"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A44:XFD46"/>
+    <mergeCell ref="A45:XFD47"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -4908,242 +4968,242 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="15" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" ht="48" customHeight="1" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" ht="148" customHeight="1" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" ht="14.25"/>
     <row r="25" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
     </row>
     <row r="29" s="2" customFormat="1" ht="14.25"/>
@@ -5197,207 +5257,207 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" s="16" customFormat="1" ht="14.25" spans="1:3">
       <c r="A6" s="16" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="14.25"/>
     <row r="10" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" ht="14.25"/>
     <row r="18" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" ht="90" customHeight="1" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" ht="14.25"/>
     <row r="22" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A22" s="5" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="29" s="2" customFormat="1" ht="14.25"/>
     <row r="30" s="2" customFormat="1" ht="85" customHeight="1" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" s="3" customFormat="1" ht="25.5" spans="1:1">
@@ -5449,10 +5509,10 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="D3" s="13">
         <v>4444</v>
@@ -5460,38 +5520,38 @@
     </row>
     <row r="4" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="D4" s="13">
         <v>4444</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="D5" s="13">
         <v>4444</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="D6" s="13">
         <v>4444</v>
@@ -5502,10 +5562,10 @@
     </row>
     <row r="8" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="D8" s="13">
         <v>4444</v>
@@ -5513,10 +5573,10 @@
     </row>
     <row r="9" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="D9" s="13">
         <v>161</v>
@@ -5527,24 +5587,24 @@
     </row>
     <row r="11" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="D11" s="13">
         <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="D12" s="13">
         <v>445</v>
@@ -5552,10 +5612,10 @@
     </row>
     <row r="13" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="D13" s="13">
         <v>445</v>
@@ -5563,10 +5623,10 @@
     </row>
     <row r="14" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="D14" s="13">
         <v>135</v>
@@ -5574,10 +5634,10 @@
     </row>
     <row r="15" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="D15" s="13">
         <v>135</v>
@@ -5585,10 +5645,10 @@
     </row>
     <row r="16" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="D16" s="13">
         <v>445</v>
@@ -5596,13 +5656,13 @@
     </row>
     <row r="17" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" ht="14.25" spans="4:4">
@@ -5610,10 +5670,10 @@
     </row>
     <row r="19" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A19" s="5" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="D19" s="13">
         <v>3306</v>
@@ -5621,10 +5681,10 @@
     </row>
     <row r="20" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="D20" s="13">
         <v>1521</v>
@@ -5632,10 +5692,10 @@
     </row>
     <row r="21" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="D21" s="13">
         <v>1521</v>
@@ -5643,10 +5703,10 @@
     </row>
     <row r="22" s="2" customFormat="1" ht="85" customHeight="1" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D22" s="13">
         <v>1433</v>
@@ -5654,37 +5714,37 @@
     </row>
     <row r="23" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="D23" s="13"/>
     </row>
     <row r="24" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="D24" s="13"/>
     </row>
     <row r="25" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="D25" s="13"/>
     </row>
     <row r="26" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="D26" s="13">
         <v>139</v>
@@ -5692,10 +5752,10 @@
     </row>
     <row r="27" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="D27" s="13">
         <v>139</v>
@@ -5703,10 +5763,10 @@
     </row>
     <row r="28" s="2" customFormat="1" ht="66" customHeight="1" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="D28" s="13">
         <v>139</v>
@@ -5714,10 +5774,10 @@
     </row>
     <row r="29" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="D29" s="13">
         <v>139</v>
@@ -5725,10 +5785,10 @@
     </row>
     <row r="30" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="D30" s="13">
         <v>23</v>
@@ -5736,10 +5796,10 @@
     </row>
     <row r="31" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="D31" s="13"/>
     </row>
@@ -5748,82 +5808,82 @@
     </row>
     <row r="33" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A33" s="2" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A36" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D36" s="14" t="s">
         <v>440</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A38" s="2" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A39" s="5" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="D39" s="13"/>
     </row>
@@ -5905,10 +5965,10 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="D3" s="11">
         <v>443</v>
@@ -5916,24 +5976,24 @@
     </row>
     <row r="4" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="D4" s="11">
         <v>443</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D5" s="11">
         <v>10443</v>
@@ -5941,10 +6001,10 @@
     </row>
     <row r="6" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="D6" s="11">
         <v>443</v>
@@ -5952,21 +6012,21 @@
     </row>
     <row r="7" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="D8" s="11">
         <v>135</v>
@@ -5974,10 +6034,10 @@
     </row>
     <row r="9" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="D9" s="11">
         <v>5985</v>
@@ -5985,10 +6045,10 @@
     </row>
     <row r="10" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="D10" s="11">
         <v>139</v>
@@ -5996,10 +6056,10 @@
     </row>
     <row r="11" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="D11" s="11">
         <v>445</v>
@@ -6007,38 +6067,38 @@
     </row>
     <row r="12" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="D12" s="11">
         <v>445</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="D13" s="11">
         <v>135</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="D14" s="11">
         <v>5900</v>
@@ -6046,10 +6106,10 @@
     </row>
     <row r="15" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="D15" s="11">
         <v>3306</v>
@@ -6057,10 +6117,10 @@
     </row>
     <row r="16" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="D16" s="11">
         <v>1433</v>
@@ -6068,10 +6128,10 @@
     </row>
     <row r="17" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="D17" s="11">
         <v>1521</v>
@@ -6079,10 +6139,10 @@
     </row>
     <row r="18" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="D18" s="11">
         <v>22</v>
@@ -6090,93 +6150,93 @@
     </row>
     <row r="19" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A22" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>493</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A24" s="5" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="D26" s="11">
         <v>23</v>
@@ -6184,76 +6244,76 @@
     </row>
     <row r="27" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="D34" s="11">
         <v>389</v>
@@ -6307,74 +6367,74 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="96" customHeight="1" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="14.25"/>
@@ -6437,336 +6497,336 @@
     </row>
     <row r="3" customFormat="1" spans="2:5">
       <c r="B3" s="8" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="14.25"/>
     <row r="13" s="2" customFormat="1" ht="14.25"/>
     <row r="14" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" ht="14.25"/>
     <row r="22" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" ht="14.25"/>
     <row r="24" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" ht="14.25"/>
     <row r="27" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
     </row>
     <row r="29" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" ht="14.25"/>
     <row r="34" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A37" s="2" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A38" s="2" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A39" s="2" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
     </row>
     <row r="41" s="2" customFormat="1" ht="14.25" spans="3:3">
@@ -6774,211 +6834,211 @@
     </row>
     <row r="42" s="2" customFormat="1" ht="14.25" spans="3:5">
       <c r="C42" s="5" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" ht="14.25" spans="3:5">
       <c r="C43" s="5" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
     </row>
     <row r="44" s="2" customFormat="1" ht="14.25" spans="3:5">
       <c r="C44" s="5" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
     </row>
     <row r="45" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
     </row>
     <row r="46" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A46" s="2" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
     </row>
     <row r="47" s="2" customFormat="1" ht="57" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
     </row>
     <row r="48" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
     </row>
     <row r="49" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
     </row>
     <row r="50" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
     </row>
     <row r="51" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A51" s="2" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
     </row>
     <row r="52" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
     </row>
     <row r="53" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
     </row>
     <row r="54" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A54" s="2" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
     </row>
     <row r="55" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A55" s="2" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
     </row>
     <row r="56" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A56" s="2" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
     </row>
     <row r="57" s="2" customFormat="1" ht="28.5" spans="1:3">
       <c r="A57" s="2" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
     </row>
     <row r="58" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A58" s="2" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
     </row>
     <row r="59" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A59" s="2" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
     </row>
     <row r="60" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A60" s="2" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
     </row>
     <row r="61" s="2" customFormat="1" ht="14.25"/>
     <row r="62" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A62" s="2" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
     </row>
     <row r="63" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A63" s="2" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
     </row>
     <row r="64" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A64" s="2" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
     </row>
     <row r="65" s="2" customFormat="1" ht="14.25"/>
     <row r="66" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A66" s="2" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
     </row>
     <row r="67" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A67" s="2" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
     </row>
     <row r="68" s="2" customFormat="1" ht="14.25" spans="1:3">
@@ -6986,7 +7046,7 @@
         <v>125</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
     </row>
     <row r="69" s="2" customFormat="1" ht="14.25" spans="1:3">
@@ -6994,112 +7054,112 @@
         <v>127</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
     </row>
     <row r="70" s="2" customFormat="1" ht="14.25"/>
     <row r="71" s="2" customFormat="1" ht="14.25"/>
     <row r="72" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A72" s="2" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
     </row>
     <row r="73" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A73" s="2" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
     </row>
     <row r="74" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A74" s="2" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
     </row>
     <row r="75" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
     </row>
     <row r="76" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
     </row>
     <row r="77" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A77" s="2" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
     </row>
     <row r="78" s="2" customFormat="1" ht="14.25"/>
     <row r="79" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A79" s="2" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
     </row>
     <row r="80" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
     </row>
     <row r="81" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A81" s="2" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
     </row>
     <row r="82" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A82" s="2" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
     </row>
     <row r="83" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A83" s="2" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
     </row>
     <row r="84" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
     </row>
     <row r="85" s="2" customFormat="1" ht="14.25"/>
